--- a/lab8/Glucose Tolerance Testing.xlsx
+++ b/lab8/Glucose Tolerance Testing.xlsx
@@ -1202,19 +1202,19 @@
         <v>73.0</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J4" si="1">average(B2:E2)</f>
+        <f t="shared" ref="J2:J5" si="1">average(B2:E2)</f>
         <v>72.5</v>
       </c>
       <c r="K2" s="3">
-        <f t="shared" ref="K2:K4" si="2">stdev(B2:E2)/sqrt(4)</f>
+        <f t="shared" ref="K2:K5" si="2">stdev(B2:E2)/sqrt(4)</f>
         <v>5.172040216</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L4" si="3">average(F2:I2)</f>
+        <f t="shared" ref="L2:L5" si="3">average(F2:I2)</f>
         <v>90.75</v>
       </c>
       <c r="M2" s="3">
-        <f t="shared" ref="M2:M4" si="4">stdev(F2:I2)/sqrt(4)</f>
+        <f t="shared" ref="M2:M5" si="4">stdev(F2:I2)/sqrt(4)</f>
         <v>7.028216938</v>
       </c>
     </row>
@@ -1312,6 +1312,49 @@
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B5" s="2">
+        <v>118.0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>118.0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>133.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>125.0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>82.0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>119.0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>119.0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>131.0</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>123.5</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="2"/>
+        <v>3.570714214</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="3"/>
+        <v>112.75</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="4"/>
+        <v>10.63308516</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
